--- a/process_data/info_cluster1.xlsx
+++ b/process_data/info_cluster1.xlsx
@@ -480,16 +480,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17593.4674479315</v>
+        <v>16378.50439745206</v>
       </c>
       <c r="C2">
         <v>2497.921177666667</v>
       </c>
       <c r="D2">
+        <v>17593.4674479315</v>
+      </c>
+      <c r="E2">
         <v>17222.33528263014</v>
-      </c>
-      <c r="E2">
-        <v>16378.50439745206</v>
       </c>
       <c r="F2">
         <v>19900.41089966667</v>
@@ -503,16 +503,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1806.379495780821</v>
+        <v>2014.248067068493</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>1806.379495780821</v>
+      </c>
+      <c r="E3">
         <v>1741.52572960274</v>
-      </c>
-      <c r="E3">
-        <v>2014.248067068493</v>
       </c>
       <c r="F3">
         <v>262056.5167253333</v>
@@ -526,16 +526,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33235.77897460274</v>
+        <v>30049.76245367121</v>
       </c>
       <c r="C4">
         <v>606117.460113</v>
       </c>
       <c r="D4">
+        <v>33235.77897460274</v>
+      </c>
+      <c r="E4">
         <v>32309.27431594519</v>
-      </c>
-      <c r="E4">
-        <v>30049.76245367121</v>
       </c>
       <c r="F4">
         <v>450453.8644803333</v>
@@ -549,16 +549,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3006.11578960274</v>
+        <v>2812.030113383561</v>
       </c>
       <c r="C5">
         <v>37794.57709233333</v>
       </c>
       <c r="D5">
+        <v>3006.11578960274</v>
+      </c>
+      <c r="E5">
         <v>2939.694885041095</v>
-      </c>
-      <c r="E5">
-        <v>2812.030113383561</v>
       </c>
       <c r="F5">
         <v>71150.62374366667</v>
@@ -572,16 +572,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>440.4027097671232</v>
+        <v>384.6545368219178</v>
       </c>
       <c r="C6">
         <v>23224.49829066667</v>
       </c>
       <c r="D6">
+        <v>440.4027097671232</v>
+      </c>
+      <c r="E6">
         <v>434.1701035342467</v>
-      </c>
-      <c r="E6">
-        <v>384.6545368219178</v>
       </c>
       <c r="F6">
         <v>2455.625102</v>
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3599.526361589041</v>
+        <v>3524.499957876712</v>
       </c>
       <c r="C7">
         <v>108017.5609026667</v>
       </c>
       <c r="D7">
+        <v>3599.526361589041</v>
+      </c>
+      <c r="E7">
         <v>3432.793164863014</v>
-      </c>
-      <c r="E7">
-        <v>3524.499957876712</v>
       </c>
       <c r="F7">
         <v>7359.746358666666</v>
@@ -618,16 +618,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14596.08051820548</v>
+        <v>12394.91939015068</v>
       </c>
       <c r="C8">
         <v>1115444.685529333</v>
       </c>
       <c r="D8">
+        <v>14596.08051820548</v>
+      </c>
+      <c r="E8">
         <v>13628.45577472602</v>
-      </c>
-      <c r="E8">
-        <v>12394.91939015068</v>
       </c>
       <c r="F8">
         <v>74112.53675166667</v>
@@ -641,16 +641,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4054.459228657533</v>
+        <v>3608.988594904108</v>
       </c>
       <c r="C9">
         <v>381749.605188</v>
       </c>
       <c r="D9">
+        <v>4054.459228657533</v>
+      </c>
+      <c r="E9">
         <v>3846.328287657536</v>
-      </c>
-      <c r="E9">
-        <v>3608.988594904108</v>
       </c>
       <c r="F9">
         <v>19894.52735866666</v>
@@ -664,16 +664,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4427.57947009589</v>
+        <v>3420.591634041096</v>
       </c>
       <c r="C10">
         <v>441702.061184</v>
       </c>
       <c r="D10">
+        <v>4427.57947009589</v>
+      </c>
+      <c r="E10">
         <v>3909.899749465752</v>
-      </c>
-      <c r="E10">
-        <v>3420.591634041096</v>
       </c>
       <c r="F10">
         <v>3655.038678333333</v>
@@ -687,16 +687,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1140.78794769863</v>
+        <v>905.1580307260275</v>
       </c>
       <c r="C11">
         <v>275821.5433836667</v>
       </c>
       <c r="D11">
+        <v>1140.78794769863</v>
+      </c>
+      <c r="E11">
         <v>1026.242651109589</v>
-      </c>
-      <c r="E11">
-        <v>905.1580307260275</v>
       </c>
       <c r="F11">
         <v>1540.530229333333</v>
@@ -710,16 +710,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5662.425267356167</v>
+        <v>5275.21813060274</v>
       </c>
       <c r="C12">
         <v>713617.4343966668</v>
       </c>
       <c r="D12">
+        <v>5662.425267356167</v>
+      </c>
+      <c r="E12">
         <v>5425.90628439726</v>
-      </c>
-      <c r="E12">
-        <v>5275.21813060274</v>
       </c>
       <c r="F12">
         <v>11462.769059</v>
@@ -733,16 +733,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3520.014387424658</v>
+        <v>3080.798970178083</v>
       </c>
       <c r="C13">
         <v>100784.5932633333</v>
       </c>
       <c r="D13">
+        <v>3520.014387424658</v>
+      </c>
+      <c r="E13">
         <v>3289.224758753425</v>
-      </c>
-      <c r="E13">
-        <v>3080.798970178083</v>
       </c>
       <c r="F13">
         <v>5934.708247333333</v>
@@ -756,16 +756,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>345.5575633972603</v>
+        <v>339.789224219178</v>
       </c>
       <c r="C14">
         <v>212400.4519626667</v>
       </c>
       <c r="D14">
+        <v>345.5575633972603</v>
+      </c>
+      <c r="E14">
         <v>348.324313520548</v>
-      </c>
-      <c r="E14">
-        <v>339.789224219178</v>
       </c>
       <c r="F14">
         <v>25262.198098</v>
@@ -779,16 +779,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>911.4401791917811</v>
+        <v>766.782103328767</v>
       </c>
       <c r="C15">
         <v>148614.5310706666</v>
       </c>
       <c r="D15">
+        <v>911.4401791917811</v>
+      </c>
+      <c r="E15">
         <v>847.5430011506849</v>
-      </c>
-      <c r="E15">
-        <v>766.782103328767</v>
       </c>
       <c r="F15">
         <v>4502.965577999999</v>
@@ -802,16 +802,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4964.384131876713</v>
+        <v>4452.520167917809</v>
       </c>
       <c r="C16">
         <v>520194.3247333334</v>
       </c>
       <c r="D16">
+        <v>4964.384131876713</v>
+      </c>
+      <c r="E16">
         <v>4634.435893054796</v>
-      </c>
-      <c r="E16">
-        <v>4452.520167917809</v>
       </c>
       <c r="F16">
         <v>8253.248928999999</v>
@@ -825,16 +825,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7169.154782726028</v>
+        <v>7054.260384589042</v>
       </c>
       <c r="C17">
         <v>89610.24562666666</v>
       </c>
       <c r="D17">
+        <v>7169.154782726028</v>
+      </c>
+      <c r="E17">
         <v>7218.64395128767</v>
-      </c>
-      <c r="E17">
-        <v>7054.260384589042</v>
       </c>
       <c r="F17">
         <v>3617.235470333334</v>
@@ -848,16 +848,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3209.301767095891</v>
+        <v>2810.418226123288</v>
       </c>
       <c r="C18">
         <v>84743.54881633334</v>
       </c>
       <c r="D18">
+        <v>3209.301767095891</v>
+      </c>
+      <c r="E18">
         <v>2968.338869917809</v>
-      </c>
-      <c r="E18">
-        <v>2810.418226123288</v>
       </c>
       <c r="F18">
         <v>3173.940166666667</v>
@@ -871,16 +871,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>450.9075762054792</v>
+        <v>339.782357410959</v>
       </c>
       <c r="C19">
         <v>59605.905046</v>
       </c>
       <c r="D19">
+        <v>450.9075762054792</v>
+      </c>
+      <c r="E19">
         <v>392.5873228904111</v>
-      </c>
-      <c r="E19">
-        <v>339.782357410959</v>
       </c>
       <c r="F19">
         <v>403.5010513333334</v>
@@ -894,16 +894,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>907.1672206164385</v>
+        <v>852.7249832054794</v>
       </c>
       <c r="C20">
         <v>140995.2456496667</v>
       </c>
       <c r="D20">
+        <v>907.1672206164385</v>
+      </c>
+      <c r="E20">
         <v>878.7527173424659</v>
-      </c>
-      <c r="E20">
-        <v>852.7249832054794</v>
       </c>
       <c r="F20">
         <v>2228.824503333333</v>
@@ -917,16 +917,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>98.92361804000008</v>
+        <v>99.08552002999977</v>
       </c>
       <c r="C21">
         <v>99.46763905666667</v>
       </c>
       <c r="D21">
+        <v>98.92361804000008</v>
+      </c>
+      <c r="E21">
         <v>100.3937790999999</v>
-      </c>
-      <c r="E21">
-        <v>99.08552002999977</v>
       </c>
       <c r="F21">
         <v>99.46763905666667</v>
@@ -940,16 +940,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.183702</v>
+        <v>8.478076999999994</v>
       </c>
       <c r="C22">
         <v>8.356064</v>
       </c>
       <c r="D22">
+        <v>8.183702</v>
+      </c>
+      <c r="E22">
         <v>8.406412999999999</v>
-      </c>
-      <c r="E22">
-        <v>8.478076999999994</v>
       </c>
       <c r="F22">
         <v>8.356064</v>
@@ -963,16 +963,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>56.01963999999999</v>
+        <v>53.50433999999996</v>
       </c>
       <c r="C23">
         <v>54.58085666666667</v>
       </c>
       <c r="D23">
+        <v>56.01963999999999</v>
+      </c>
+      <c r="E23">
         <v>54.21859000000021</v>
-      </c>
-      <c r="E23">
-        <v>53.50433999999996</v>
       </c>
       <c r="F23">
         <v>54.58085666666667</v>
@@ -986,16 +986,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.75117</v>
+        <v>35.58676999999993</v>
       </c>
       <c r="C24">
         <v>35.1189</v>
       </c>
       <c r="D24">
+        <v>34.75117</v>
+      </c>
+      <c r="E24">
         <v>35.01875999999996</v>
-      </c>
-      <c r="E24">
-        <v>35.58676999999993</v>
       </c>
       <c r="F24">
         <v>35.1189</v>
@@ -1009,16 +1009,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>69428454</v>
+        <v>68971313</v>
       </c>
       <c r="C25">
         <v>69203194.66666667</v>
       </c>
       <c r="D25">
+        <v>69428454</v>
+      </c>
+      <c r="E25">
         <v>69209817</v>
-      </c>
-      <c r="E25">
-        <v>68971313</v>
       </c>
       <c r="F25">
         <v>69203194.66666667</v>
@@ -1032,16 +1032,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>143105.503369863</v>
+        <v>130246.5616986301</v>
       </c>
       <c r="C26">
         <v>573019.2930000001</v>
       </c>
       <c r="D26">
+        <v>143105.503369863</v>
+      </c>
+      <c r="E26">
         <v>138087.8204109589</v>
-      </c>
-      <c r="E26">
-        <v>130246.5616986301</v>
       </c>
       <c r="F26">
         <v>1026253.370333333</v>

--- a/process_data/info_cluster1.xlsx
+++ b/process_data/info_cluster1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantc\Documents\final_stat_pant\process_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5906F094-AF9D-4315-AF30-B8574FD829D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,17 +156,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,632 +499,618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>16378.50439745206</v>
-      </c>
-      <c r="C2">
-        <v>2497.921177666667</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>16378.504397452059</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2497.9211776666671</v>
+      </c>
+      <c r="D2" s="2">
         <v>17593.4674479315</v>
       </c>
-      <c r="E2">
-        <v>17222.33528263014</v>
-      </c>
-      <c r="F2">
-        <v>19900.41089966667</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="2">
+        <v>17222.335282630142</v>
+      </c>
+      <c r="F2" s="2">
+        <v>19900.410899666669</v>
+      </c>
+      <c r="G2" s="2">
         <v>11406.41537033333</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2014.248067068493</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>2014.2480670684929</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1806.379495780821</v>
-      </c>
-      <c r="E3">
-        <v>1741.52572960274</v>
-      </c>
-      <c r="F3">
-        <v>262056.5167253333</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="2">
+        <v>1806.3794957808209</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1741.5257296027401</v>
+      </c>
+      <c r="F3" s="2">
+        <v>262056.51672533329</v>
+      </c>
+      <c r="G3" s="2">
         <v>1783.728758333333</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>30049.76245367121</v>
       </c>
-      <c r="C4">
-        <v>606117.460113</v>
-      </c>
-      <c r="D4">
-        <v>33235.77897460274</v>
-      </c>
-      <c r="E4">
-        <v>32309.27431594519</v>
-      </c>
-      <c r="F4">
-        <v>450453.8644803333</v>
-      </c>
-      <c r="G4">
-        <v>396316.353148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="2">
+        <v>606117.46011300001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>33235.778974602741</v>
+      </c>
+      <c r="E4" s="2">
+        <v>32309.274315945189</v>
+      </c>
+      <c r="F4" s="2">
+        <v>450453.86448033329</v>
+      </c>
+      <c r="G4" s="2">
+        <v>396316.35314800002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2812.030113383561</v>
       </c>
-      <c r="C5">
-        <v>37794.57709233333</v>
-      </c>
-      <c r="D5">
-        <v>3006.11578960274</v>
-      </c>
-      <c r="E5">
-        <v>2939.694885041095</v>
-      </c>
-      <c r="F5">
-        <v>71150.62374366667</v>
-      </c>
-      <c r="G5">
-        <v>37619.96168733333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" s="2">
+        <v>37794.577092333333</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3006.1157896027398</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2939.6948850410949</v>
+      </c>
+      <c r="F5" s="2">
+        <v>71150.623743666671</v>
+      </c>
+      <c r="G5" s="2">
+        <v>37619.961687333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>384.6545368219178</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>384.65453682191782</v>
+      </c>
+      <c r="C6" s="2">
         <v>23224.49829066667</v>
       </c>
-      <c r="D6">
-        <v>440.4027097671232</v>
-      </c>
-      <c r="E6">
-        <v>434.1701035342467</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="2">
+        <v>440.40270976712321</v>
+      </c>
+      <c r="E6" s="2">
+        <v>434.17010353424672</v>
+      </c>
+      <c r="F6" s="2">
         <v>2455.625102</v>
       </c>
-      <c r="G6">
-        <v>3596.428744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2">
+        <v>3596.4287439999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3524.499957876712</v>
       </c>
-      <c r="C7">
-        <v>108017.5609026667</v>
-      </c>
-      <c r="D7">
-        <v>3599.526361589041</v>
-      </c>
-      <c r="E7">
-        <v>3432.793164863014</v>
-      </c>
-      <c r="F7">
-        <v>7359.746358666666</v>
-      </c>
-      <c r="G7">
-        <v>14887.899735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" s="2">
+        <v>108017.56090266669</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3599.5263615890408</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3432.7931648630142</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7359.7463586666663</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14887.899735000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>12394.91939015068</v>
-      </c>
-      <c r="C8">
-        <v>1115444.685529333</v>
-      </c>
-      <c r="D8">
-        <v>14596.08051820548</v>
-      </c>
-      <c r="E8">
-        <v>13628.45577472602</v>
-      </c>
-      <c r="F8">
-        <v>74112.53675166667</v>
-      </c>
-      <c r="G8">
+      <c r="B8" s="2">
+        <v>12394.919390150681</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1115444.6855293331</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14596.080518205479</v>
+      </c>
+      <c r="E8" s="2">
+        <v>13628.455774726021</v>
+      </c>
+      <c r="F8" s="2">
+        <v>74112.536751666674</v>
+      </c>
+      <c r="G8" s="2">
         <v>105597.3959293333</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>3608.988594904108</v>
-      </c>
-      <c r="C9">
-        <v>381749.605188</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="2">
+        <v>3608.9885949041081</v>
+      </c>
+      <c r="C9" s="2">
+        <v>381749.60518800002</v>
+      </c>
+      <c r="D9" s="2">
         <v>4054.459228657533</v>
       </c>
-      <c r="E9">
-        <v>3846.328287657536</v>
-      </c>
-      <c r="F9">
-        <v>19894.52735866666</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="2">
+        <v>3846.3282876575358</v>
+      </c>
+      <c r="F9" s="2">
+        <v>19894.527358666659</v>
+      </c>
+      <c r="G9" s="2">
         <v>115448.089417</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>3420.591634041096</v>
-      </c>
-      <c r="C10">
-        <v>441702.061184</v>
-      </c>
-      <c r="D10">
-        <v>4427.57947009589</v>
-      </c>
-      <c r="E10">
-        <v>3909.899749465752</v>
-      </c>
-      <c r="F10">
-        <v>3655.038678333333</v>
-      </c>
-      <c r="G10">
-        <v>39851.33633200001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="B10" s="2">
+        <v>3420.5916340410959</v>
+      </c>
+      <c r="C10" s="2">
+        <v>441702.06118399999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4427.5794700958904</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3909.8997494657519</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3655.0386783333329</v>
+      </c>
+      <c r="G10" s="2">
+        <v>39851.336332000013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>905.1580307260275</v>
       </c>
-      <c r="C11">
-        <v>275821.5433836667</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2">
+        <v>275821.54338366672</v>
+      </c>
+      <c r="D11" s="2">
         <v>1140.78794769863</v>
       </c>
-      <c r="E11">
-        <v>1026.242651109589</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="2">
+        <v>1026.2426511095889</v>
+      </c>
+      <c r="F11" s="2">
         <v>1540.530229333333</v>
       </c>
-      <c r="G11">
-        <v>4958.751055666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2">
+        <v>4958.7510556666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>5275.21813060274</v>
-      </c>
-      <c r="C12">
-        <v>713617.4343966668</v>
-      </c>
-      <c r="D12">
-        <v>5662.425267356167</v>
-      </c>
-      <c r="E12">
-        <v>5425.90628439726</v>
-      </c>
-      <c r="F12">
+      <c r="B12" s="2">
+        <v>5275.2181306027396</v>
+      </c>
+      <c r="C12" s="2">
+        <v>713617.43439666682</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5662.4252673561668</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5425.9062843972597</v>
+      </c>
+      <c r="F12" s="2">
         <v>11462.769059</v>
       </c>
-      <c r="G12">
-        <v>27296.99441216666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2">
+        <v>27296.994412166659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3080.798970178083</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>100784.5932633333</v>
       </c>
-      <c r="D13">
-        <v>3520.014387424658</v>
-      </c>
-      <c r="E13">
-        <v>3289.224758753425</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="2">
+        <v>3520.0143874246578</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3289.2247587534248</v>
+      </c>
+      <c r="F13" s="2">
         <v>5934.708247333333</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>15098.11617333333</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>339.789224219178</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>339.78922421917798</v>
+      </c>
+      <c r="C14" s="2">
         <v>212400.4519626667</v>
       </c>
-      <c r="D14">
-        <v>345.5575633972603</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="2">
+        <v>345.55756339726031</v>
+      </c>
+      <c r="E14" s="2">
         <v>348.324313520548</v>
       </c>
-      <c r="F14">
-        <v>25262.198098</v>
-      </c>
-      <c r="G14">
-        <v>4613.35889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="2">
+        <v>25262.198098000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4613.3588900000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>766.782103328767</v>
-      </c>
-      <c r="C15">
-        <v>148614.5310706666</v>
-      </c>
-      <c r="D15">
-        <v>911.4401791917811</v>
-      </c>
-      <c r="E15">
-        <v>847.5430011506849</v>
-      </c>
-      <c r="F15">
-        <v>4502.965577999999</v>
-      </c>
-      <c r="G15">
+      <c r="B15" s="2">
+        <v>766.78210332876699</v>
+      </c>
+      <c r="C15" s="2">
+        <v>148614.53107066659</v>
+      </c>
+      <c r="D15" s="2">
+        <v>911.44017919178111</v>
+      </c>
+      <c r="E15" s="2">
+        <v>847.54300115068486</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4502.9655779999994</v>
+      </c>
+      <c r="G15" s="2">
         <v>18316.11793916667</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>4452.520167917809</v>
       </c>
-      <c r="C16">
-        <v>520194.3247333334</v>
-      </c>
-      <c r="D16">
-        <v>4964.384131876713</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="2">
+        <v>520194.32473333337</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4964.3841318767127</v>
+      </c>
+      <c r="E16" s="2">
         <v>4634.435893054796</v>
       </c>
-      <c r="F16">
-        <v>8253.248928999999</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2">
+        <v>8253.2489289999994</v>
+      </c>
+      <c r="G16" s="2">
         <v>24076.22988316667</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>7054.260384589042</v>
-      </c>
-      <c r="C17">
-        <v>89610.24562666666</v>
-      </c>
-      <c r="D17">
-        <v>7169.154782726028</v>
-      </c>
-      <c r="E17">
-        <v>7218.64395128767</v>
-      </c>
-      <c r="F17">
+      <c r="B17" s="2">
+        <v>7054.2603845890417</v>
+      </c>
+      <c r="C17" s="2">
+        <v>89610.245626666656</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7169.1547827260283</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7218.6439512876696</v>
+      </c>
+      <c r="F17" s="2">
         <v>3617.235470333334</v>
       </c>
-      <c r="G17">
-        <v>8141.1735935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2">
+        <v>8141.1735934999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>2810.418226123288</v>
-      </c>
-      <c r="C18">
-        <v>84743.54881633334</v>
-      </c>
-      <c r="D18">
-        <v>3209.301767095891</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="2">
+        <v>2810.4182261232882</v>
+      </c>
+      <c r="C18" s="2">
+        <v>84743.548816333336</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3209.3017670958911</v>
+      </c>
+      <c r="E18" s="2">
         <v>2968.338869917809</v>
       </c>
-      <c r="F18">
-        <v>3173.940166666667</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2">
+        <v>3173.9401666666672</v>
+      </c>
+      <c r="G18" s="2">
         <v>10013.24887733333</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>339.782357410959</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2">
+        <v>339.78235741095898</v>
+      </c>
+      <c r="C19" s="2">
         <v>59605.905046</v>
       </c>
-      <c r="D19">
-        <v>450.9075762054792</v>
-      </c>
-      <c r="E19">
-        <v>392.5873228904111</v>
-      </c>
-      <c r="F19">
-        <v>403.5010513333334</v>
-      </c>
-      <c r="G19">
-        <v>1370.914516666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="D19" s="2">
+        <v>450.90757620547919</v>
+      </c>
+      <c r="E19" s="2">
+        <v>392.58732289041109</v>
+      </c>
+      <c r="F19" s="2">
+        <v>403.50105133333341</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1370.9145166666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>852.7249832054794</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2">
+        <v>852.72498320547936</v>
+      </c>
+      <c r="C20" s="2">
         <v>140995.2456496667</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>907.1672206164385</v>
       </c>
-      <c r="E20">
-        <v>878.7527173424659</v>
-      </c>
-      <c r="F20">
-        <v>2228.824503333333</v>
-      </c>
-      <c r="G20">
-        <v>12551.1270015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="E20" s="2">
+        <v>878.75271734246587</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2228.8245033333328</v>
+      </c>
+      <c r="G20" s="2">
+        <v>12551.127001499999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>99.08552002999977</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>99.46763905666667</v>
       </c>
-      <c r="D21">
-        <v>98.92361804000008</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="2">
+        <v>98.923618040000079</v>
+      </c>
+      <c r="E21" s="2">
         <v>100.3937790999999</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>99.46763905666667</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>99.46763905666667</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>8.478076999999994</v>
-      </c>
-      <c r="C22">
-        <v>8.356064</v>
-      </c>
-      <c r="D22">
-        <v>8.183702</v>
-      </c>
-      <c r="E22">
-        <v>8.406412999999999</v>
-      </c>
-      <c r="F22">
-        <v>8.356064</v>
-      </c>
-      <c r="G22">
-        <v>8.356063999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="B22" s="2">
+        <v>8.4780769999999936</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.3560639999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8.1837020000000003</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8.4064129999999988</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.3560639999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8.3560639999999982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>53.50433999999996</v>
-      </c>
-      <c r="C23">
-        <v>54.58085666666667</v>
-      </c>
-      <c r="D23">
-        <v>56.01963999999999</v>
-      </c>
-      <c r="E23">
-        <v>54.21859000000021</v>
-      </c>
-      <c r="F23">
-        <v>54.58085666666667</v>
-      </c>
-      <c r="G23">
-        <v>54.58085666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" s="2">
+        <v>53.504339999999956</v>
+      </c>
+      <c r="C23" s="2">
+        <v>54.580856666666669</v>
+      </c>
+      <c r="D23" s="2">
+        <v>56.019639999999988</v>
+      </c>
+      <c r="E23" s="2">
+        <v>54.218590000000212</v>
+      </c>
+      <c r="F23" s="2">
+        <v>54.580856666666669</v>
+      </c>
+      <c r="G23" s="2">
+        <v>54.580856666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>35.58676999999993</v>
       </c>
-      <c r="C24">
-        <v>35.1189</v>
-      </c>
-      <c r="D24">
-        <v>34.75117</v>
-      </c>
-      <c r="E24">
-        <v>35.01875999999996</v>
-      </c>
-      <c r="F24">
-        <v>35.1189</v>
-      </c>
-      <c r="G24">
-        <v>35.1189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="C24" s="2">
+        <v>35.118899999999996</v>
+      </c>
+      <c r="D24" s="2">
+        <v>34.751170000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>35.018759999999958</v>
+      </c>
+      <c r="F24" s="2">
+        <v>35.118899999999996</v>
+      </c>
+      <c r="G24" s="2">
+        <v>35.118899999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>68971313</v>
       </c>
-      <c r="C25">
-        <v>69203194.66666667</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2">
+        <v>69203194.666666672</v>
+      </c>
+      <c r="D25" s="2">
         <v>69428454</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>69209817</v>
       </c>
-      <c r="F25">
-        <v>69203194.66666667</v>
-      </c>
-      <c r="G25">
-        <v>69203194.66666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="2">
+        <v>69203194.666666672</v>
+      </c>
+      <c r="G25" s="2">
+        <v>69203194.666666672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>130246.5616986301</v>
       </c>
-      <c r="C26">
-        <v>573019.2930000001</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2">
+        <v>573019.29300000006</v>
+      </c>
+      <c r="D26" s="2">
         <v>143105.503369863</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>138087.8204109589</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>1026253.370333333</v>
       </c>
-      <c r="G26">
-        <v>445162.6853333334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
+      <c r="G26" s="2">
+        <v>445162.68533333339</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>